--- a/outputs-GTDB-r202/c__Alphaproteobacteria.xlsx
+++ b/outputs-GTDB-r202/c__Alphaproteobacteria.xlsx
@@ -2181,7 +2181,7 @@
       </c>
       <c r="CW5" t="inlineStr">
         <is>
-          <t>o__RF32</t>
+          <t>o__RF32(reject)</t>
         </is>
       </c>
     </row>
